--- a/Isochrone/Excel Data/disabilitycent.xlsx
+++ b/Isochrone/Excel Data/disabilitycent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo Allen\Downloads\Services\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo Allen\Desktop\Isochrones\isochrones\Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83ED5B74-70F7-4B5A-8B91-52B3017183CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26936D0C-FA45-412D-90B9-A4E030418798}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="17328" windowHeight="10620" xr2:uid="{3B9ECB80-E7DF-45ED-AE85-2B465C2418ED}"/>
+    <workbookView xWindow="-25320" yWindow="6150" windowWidth="25440" windowHeight="15390" xr2:uid="{3B9ECB80-E7DF-45ED-AE85-2B465C2418ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Number</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>community members. Currently working to form a CIL in Culpeper. Also offers assistive equipment in their Fredericksburg location)</t>
+  </si>
+  <si>
+    <t>Hot Wheels Program</t>
+  </si>
+  <si>
+    <t>310 Thrift Rd</t>
+  </si>
+  <si>
+    <t>Madison</t>
   </si>
 </sst>
 </file>
@@ -457,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C766DE34-76F3-4CF1-B3A6-1B82A0FB16D0}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -596,6 +605,29 @@
         <v>26</v>
       </c>
     </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <v>-78.262205399999999</v>
+      </c>
+      <c r="H5">
+        <v>38.3771542</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
